--- a/Data Mix/ResultatExcel/IledeFrance.xlsx
+++ b/Data Mix/ResultatExcel/IledeFrance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Thermique</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nucleaire</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Eolien</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Solaire</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Hydraulique</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BioEnergie</t>
         </is>
@@ -495,21 +500,24 @@
         <v>16826536</v>
       </c>
       <c r="D2" t="n">
+        <v>1706757</v>
+      </c>
+      <c r="E2" t="n">
         <v>1511681</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>5861</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1614</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>86</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>187515</v>
       </c>
     </row>
@@ -528,21 +536,24 @@
         <v>32439985</v>
       </c>
       <c r="D3" t="n">
+        <v>3234351</v>
+      </c>
+      <c r="E3" t="n">
         <v>2854430</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>12650</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>5865</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>94</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>361312</v>
       </c>
     </row>
@@ -561,21 +572,24 @@
         <v>48022481</v>
       </c>
       <c r="D4" t="n">
+        <v>4973707</v>
+      </c>
+      <c r="E4" t="n">
         <v>4398563</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>17905</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>13384</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>6081</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>537774</v>
       </c>
     </row>
@@ -594,21 +608,24 @@
         <v>60480289</v>
       </c>
       <c r="D5" t="n">
+        <v>5549489</v>
+      </c>
+      <c r="E5" t="n">
         <v>4794717</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>24381</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>25777</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>13623</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>690991</v>
       </c>
     </row>
@@ -627,21 +644,24 @@
         <v>71629876</v>
       </c>
       <c r="D6" t="n">
+        <v>5824506</v>
+      </c>
+      <c r="E6" t="n">
         <v>4879420</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>28873</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>39036</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>13853</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>863324</v>
       </c>
     </row>
@@ -660,21 +680,24 @@
         <v>81616848</v>
       </c>
       <c r="D7" t="n">
+        <v>6202938</v>
+      </c>
+      <c r="E7" t="n">
         <v>5065819</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>33408</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>53675</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>19933</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1030103</v>
       </c>
     </row>
@@ -693,21 +716,24 @@
         <v>91642362</v>
       </c>
       <c r="D8" t="n">
+        <v>6618686</v>
+      </c>
+      <c r="E8" t="n">
         <v>5231620</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>37545</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>72154</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>32979</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>1244388</v>
       </c>
     </row>
@@ -726,21 +752,24 @@
         <v>100517348</v>
       </c>
       <c r="D9" t="n">
+        <v>7020112</v>
+      </c>
+      <c r="E9" t="n">
         <v>5415073</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>40305</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>87830</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>43036</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>1433868</v>
       </c>
     </row>
@@ -759,21 +788,24 @@
         <v>110469782</v>
       </c>
       <c r="D10" t="n">
+        <v>7598178</v>
+      </c>
+      <c r="E10" t="n">
         <v>5824918</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>44341</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>98265</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>52446</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>1578208</v>
       </c>
     </row>
@@ -792,21 +824,24 @@
         <v>121875888</v>
       </c>
       <c r="D11" t="n">
+        <v>8211876</v>
+      </c>
+      <c r="E11" t="n">
         <v>6229459</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>51123</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>105177</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>59581</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>1766536</v>
       </c>
     </row>
@@ -825,21 +860,24 @@
         <v>136028729</v>
       </c>
       <c r="D12" t="n">
+        <v>9318129</v>
+      </c>
+      <c r="E12" t="n">
         <v>7149902</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>59527</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>108465</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>59620</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>1940615</v>
       </c>
     </row>
@@ -858,21 +896,24 @@
         <v>151410004</v>
       </c>
       <c r="D13" t="n">
+        <v>10423671</v>
+      </c>
+      <c r="E13" t="n">
         <v>8037750</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>69062</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>112202</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>63775</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>2140882</v>
       </c>
     </row>
@@ -891,21 +932,24 @@
         <v>1022960128</v>
       </c>
       <c r="D14" t="n">
+        <v>76682400</v>
+      </c>
+      <c r="E14" t="n">
         <v>61393352</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>424981</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>723444</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>365107</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>13775516</v>
       </c>
     </row>
@@ -924,21 +968,24 @@
         <v>166668339</v>
       </c>
       <c r="D15" t="n">
+        <v>11343010</v>
+      </c>
+      <c r="E15" t="n">
         <v>8709228</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>79957</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>115299</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>67416</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>2371110</v>
       </c>
     </row>
@@ -957,21 +1004,24 @@
         <v>180199267</v>
       </c>
       <c r="D16" t="n">
+        <v>11964159</v>
+      </c>
+      <c r="E16" t="n">
         <v>9087353</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>92983</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>121167</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>68873</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>2593783</v>
       </c>
     </row>
@@ -990,21 +1040,24 @@
         <v>193255216</v>
       </c>
       <c r="D17" t="n">
+        <v>12789096</v>
+      </c>
+      <c r="E17" t="n">
         <v>9648737</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>98724</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>134301</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>77173</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>2830161</v>
       </c>
     </row>
@@ -1023,21 +1076,24 @@
         <v>204059737</v>
       </c>
       <c r="D18" t="n">
+        <v>13196841</v>
+      </c>
+      <c r="E18" t="n">
         <v>9810350</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>102759</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>148105</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>90905</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>3044722</v>
       </c>
     </row>
@@ -1056,21 +1112,24 @@
         <v>214628608</v>
       </c>
       <c r="D19" t="n">
+        <v>13548837</v>
+      </c>
+      <c r="E19" t="n">
         <v>9910227</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>109764</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>164737</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>102503</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>3261606</v>
       </c>
     </row>
@@ -1089,21 +1148,24 @@
         <v>224264987</v>
       </c>
       <c r="D20" t="n">
+        <v>13839631</v>
+      </c>
+      <c r="E20" t="n">
         <v>10011057</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>114390</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>183529</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>109519</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>3421136</v>
       </c>
     </row>
@@ -1122,21 +1184,24 @@
         <v>234051901</v>
       </c>
       <c r="D21" t="n">
+        <v>14085886</v>
+      </c>
+      <c r="E21" t="n">
         <v>10022750</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>118337</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>199312</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>116466</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>3629021</v>
       </c>
     </row>
@@ -1155,21 +1220,24 @@
         <v>242769004</v>
       </c>
       <c r="D22" t="n">
+        <v>14313634</v>
+      </c>
+      <c r="E22" t="n">
         <v>10030327</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>122525</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>214344</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>126788</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>3819650</v>
       </c>
     </row>
@@ -1188,21 +1256,24 @@
         <v>252523853</v>
       </c>
       <c r="D23" t="n">
+        <v>14735371</v>
+      </c>
+      <c r="E23" t="n">
         <v>10259482</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>125651</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>229113</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>136031</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>3985094</v>
       </c>
     </row>
@@ -1221,21 +1292,24 @@
         <v>263624046</v>
       </c>
       <c r="D24" t="n">
+        <v>15322772</v>
+      </c>
+      <c r="E24" t="n">
         <v>10614681</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>130852</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>237275</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>147896</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>4192068</v>
       </c>
     </row>
@@ -1254,21 +1328,24 @@
         <v>276162524</v>
       </c>
       <c r="D25" t="n">
+        <v>16192654</v>
+      </c>
+      <c r="E25" t="n">
         <v>11258835</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>136206</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>241737</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>159476</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>4396400</v>
       </c>
     </row>
@@ -1287,21 +1364,24 @@
         <v>291891899</v>
       </c>
       <c r="D26" t="n">
+        <v>17403341</v>
+      </c>
+      <c r="E26" t="n">
         <v>12227690</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>144745</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>244042</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>168101</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>4618763</v>
       </c>
     </row>
@@ -1320,21 +1400,24 @@
         <v>4790019637</v>
       </c>
       <c r="D27" t="n">
+        <v>322100032</v>
+      </c>
+      <c r="E27" t="n">
         <v>244377421</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>2226855</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>3679849</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>2101361</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>69714546</v>
       </c>
     </row>
@@ -1353,21 +1436,24 @@
         <v>308284432</v>
       </c>
       <c r="D28" t="n">
+        <v>18605436</v>
+      </c>
+      <c r="E28" t="n">
         <v>13225217</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>154618</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>247099</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>172117</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>4806385</v>
       </c>
     </row>
@@ -1386,21 +1472,24 @@
         <v>323169399</v>
       </c>
       <c r="D29" t="n">
+        <v>19977784</v>
+      </c>
+      <c r="E29" t="n">
         <v>14414546</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>163055</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>253252</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>176640</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>4970291</v>
       </c>
     </row>
@@ -1419,21 +1508,24 @@
         <v>337320552</v>
       </c>
       <c r="D30" t="n">
+        <v>21164699</v>
+      </c>
+      <c r="E30" t="n">
         <v>15400587</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>170684</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>264119</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>184972</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>5144337</v>
       </c>
     </row>
@@ -1452,21 +1544,24 @@
         <v>348422094</v>
       </c>
       <c r="D31" t="n">
+        <v>21472747</v>
+      </c>
+      <c r="E31" t="n">
         <v>15511191</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>176588</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>280558</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>194830</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>5309580</v>
       </c>
     </row>
@@ -1485,21 +1580,24 @@
         <v>358747953</v>
       </c>
       <c r="D32" t="n">
+        <v>21675172</v>
+      </c>
+      <c r="E32" t="n">
         <v>15539349</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>182168</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>298005</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>201670</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>5453980</v>
       </c>
     </row>
@@ -1518,21 +1616,24 @@
         <v>368541514</v>
       </c>
       <c r="D33" t="n">
+        <v>21887984</v>
+      </c>
+      <c r="E33" t="n">
         <v>15565184</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>186613</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>319418</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>213704</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>5603065</v>
       </c>
     </row>
@@ -1551,21 +1652,24 @@
         <v>378364114</v>
       </c>
       <c r="D34" t="n">
+        <v>22102382</v>
+      </c>
+      <c r="E34" t="n">
         <v>15593427</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>191858</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>339028</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>220790</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>5757279</v>
       </c>
     </row>
@@ -1584,21 +1688,24 @@
         <v>387250814</v>
       </c>
       <c r="D35" t="n">
+        <v>22326620</v>
+      </c>
+      <c r="E35" t="n">
         <v>15603404</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>198489</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>356509</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>228860</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>5939358</v>
       </c>
     </row>
@@ -1617,21 +1724,24 @@
         <v>397177102</v>
       </c>
       <c r="D36" t="n">
+        <v>22554388</v>
+      </c>
+      <c r="E36" t="n">
         <v>15620088</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>211490</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>370557</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>240508</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>6111745</v>
       </c>
     </row>
@@ -1650,21 +1760,24 @@
         <v>409277694</v>
       </c>
       <c r="D37" t="n">
+        <v>22828310</v>
+      </c>
+      <c r="E37" t="n">
         <v>15673382</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>219060</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>379004</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>252699</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>6304165</v>
       </c>
     </row>
@@ -1683,21 +1796,24 @@
         <v>421802101</v>
       </c>
       <c r="D38" t="n">
+        <v>23756589</v>
+      </c>
+      <c r="E38" t="n">
         <v>16383552</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>235572</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>383926</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>263457</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>6490082</v>
       </c>
     </row>
@@ -1716,21 +1832,24 @@
         <v>435383988</v>
       </c>
       <c r="D39" t="n">
+        <v>24658313</v>
+      </c>
+      <c r="E39" t="n">
         <v>17050803</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>249934</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>387908</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>278268</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>6691400</v>
       </c>
     </row>
@@ -1749,21 +1868,24 @@
         <v>14053781031</v>
       </c>
       <c r="D40" t="n">
+        <v>907210488</v>
+      </c>
+      <c r="E40" t="n">
         <v>674335572</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>6793839</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>11239081</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>6831237</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>208010759</v>
       </c>
     </row>
@@ -1782,21 +1904,24 @@
         <v>450981365</v>
       </c>
       <c r="D41" t="n">
+        <v>25615935</v>
+      </c>
+      <c r="E41" t="n">
         <v>17763589</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>268021</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>391548</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>294106</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>6898671</v>
       </c>
     </row>
@@ -1815,21 +1940,24 @@
         <v>465230708</v>
       </c>
       <c r="D42" t="n">
+        <v>26520193</v>
+      </c>
+      <c r="E42" t="n">
         <v>18440195</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
       <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
         <v>286667</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>398107</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>297204</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>7098020</v>
       </c>
     </row>
@@ -1848,21 +1976,24 @@
         <v>479747879</v>
       </c>
       <c r="D43" t="n">
+        <v>27406524</v>
+      </c>
+      <c r="E43" t="n">
         <v>19079202</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>303265</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>408563</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>304588</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>7310906</v>
       </c>
     </row>
@@ -1881,21 +2012,24 @@
         <v>491649242</v>
       </c>
       <c r="D44" t="n">
+        <v>27676212</v>
+      </c>
+      <c r="E44" t="n">
         <v>19148559</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>312764</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>423568</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>315156</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>7476165</v>
       </c>
     </row>
@@ -1914,21 +2048,24 @@
         <v>502194601</v>
       </c>
       <c r="D45" t="n">
+        <v>27961102</v>
+      </c>
+      <c r="E45" t="n">
         <v>19198431</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
       <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>321180</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>438840</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>327867</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>7674784</v>
       </c>
     </row>
@@ -1947,21 +2084,24 @@
         <v>512086605</v>
       </c>
       <c r="D46" t="n">
+        <v>28213308</v>
+      </c>
+      <c r="E46" t="n">
         <v>19236424</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>326862</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>453315</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>327911</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>7868796</v>
       </c>
     </row>
@@ -1980,21 +2120,24 @@
         <v>521600634</v>
       </c>
       <c r="D47" t="n">
+        <v>28531168</v>
+      </c>
+      <c r="E47" t="n">
         <v>19265463</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
       <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
         <v>332346</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>472625</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>338979</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>8121755</v>
       </c>
     </row>
@@ -2013,21 +2156,24 @@
         <v>530499574</v>
       </c>
       <c r="D48" t="n">
+        <v>28782871</v>
+      </c>
+      <c r="E48" t="n">
         <v>19286035</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
       <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>339140</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>490912</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>348732</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>8318052</v>
       </c>
     </row>
@@ -2046,21 +2192,24 @@
         <v>540141007</v>
       </c>
       <c r="D49" t="n">
+        <v>29115256</v>
+      </c>
+      <c r="E49" t="n">
         <v>19389468</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
       <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>343853</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>503652</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>358797</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>8519486</v>
       </c>
     </row>
@@ -2079,21 +2228,24 @@
         <v>551896700</v>
       </c>
       <c r="D50" t="n">
+        <v>29655917</v>
+      </c>
+      <c r="E50" t="n">
         <v>19689587</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
       <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
         <v>352508</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>518241</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>368702</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>8726879</v>
       </c>
     </row>
@@ -2112,21 +2264,24 @@
         <v>565622166</v>
       </c>
       <c r="D51" t="n">
+        <v>30929402</v>
+      </c>
+      <c r="E51" t="n">
         <v>20720385</v>
       </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
       <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>365907</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>522924</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>380039</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>8940147</v>
       </c>
     </row>
@@ -2145,21 +2300,24 @@
         <v>581432044</v>
       </c>
       <c r="D52" t="n">
+        <v>32172011</v>
+      </c>
+      <c r="E52" t="n">
         <v>21709214</v>
       </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
       <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
         <v>371667</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>527086</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>394171</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>9169873</v>
       </c>
     </row>
@@ -2178,21 +2336,24 @@
         <v>34300644587</v>
       </c>
       <c r="D53" t="n">
+        <v>2157000875</v>
+      </c>
+      <c r="E53" t="n">
         <v>1581597696</v>
       </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
       <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>17511858</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>28027543</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>17718726</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>512145052</v>
       </c>
     </row>
@@ -2211,21 +2372,24 @@
         <v>599217790</v>
       </c>
       <c r="D54" t="n">
+        <v>34055513</v>
+      </c>
+      <c r="E54" t="n">
         <v>23348660</v>
       </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
       <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>381937</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>531121</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>408837</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>9384958</v>
       </c>
     </row>
@@ -2244,21 +2408,24 @@
         <v>612555659</v>
       </c>
       <c r="D55" t="n">
+        <v>35010117</v>
+      </c>
+      <c r="E55" t="n">
         <v>24066723</v>
       </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
       <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
         <v>396294</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>536314</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>424173</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>9586613</v>
       </c>
     </row>
@@ -2277,21 +2444,24 @@
         <v>625453725</v>
       </c>
       <c r="D56" t="n">
+        <v>35860469</v>
+      </c>
+      <c r="E56" t="n">
         <v>24681440</v>
       </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
       <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
         <v>416136</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>547157</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>433778</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>9781958</v>
       </c>
     </row>
@@ -2310,21 +2480,24 @@
         <v>636397469</v>
       </c>
       <c r="D57" t="n">
+        <v>36113256</v>
+      </c>
+      <c r="E57" t="n">
         <v>24690253</v>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
       <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>425616</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>564932</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>447545</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>9984910</v>
       </c>
     </row>
@@ -2343,21 +2516,24 @@
         <v>646820547</v>
       </c>
       <c r="D58" t="n">
+        <v>36365137</v>
+      </c>
+      <c r="E58" t="n">
         <v>24705375</v>
       </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
       <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
         <v>435967</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>585296</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>457276</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>10181223</v>
       </c>
     </row>
@@ -2376,21 +2552,24 @@
         <v>656470883</v>
       </c>
       <c r="D59" t="n">
+        <v>36658337</v>
+      </c>
+      <c r="E59" t="n">
         <v>24743092</v>
       </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
       <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
         <v>446054</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>607536</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>463771</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>10397884</v>
       </c>
     </row>
@@ -2409,21 +2588,24 @@
         <v>665858451</v>
       </c>
       <c r="D60" t="n">
+        <v>36966405</v>
+      </c>
+      <c r="E60" t="n">
         <v>24751552</v>
       </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
       <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
         <v>459322</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>626469</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>470854</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>10658208</v>
       </c>
     </row>
@@ -2442,21 +2624,24 @@
         <v>674543564</v>
       </c>
       <c r="D61" t="n">
+        <v>37215077</v>
+      </c>
+      <c r="E61" t="n">
         <v>24757652</v>
       </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
       <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>470126</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>644006</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>477703</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>10865590</v>
       </c>
     </row>
@@ -2475,21 +2660,24 @@
         <v>684348103</v>
       </c>
       <c r="D62" t="n">
+        <v>37498446</v>
+      </c>
+      <c r="E62" t="n">
         <v>24772786</v>
       </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
       <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
         <v>486151</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>657698</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>484966</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>11096845</v>
       </c>
     </row>
@@ -2508,21 +2696,24 @@
         <v>695250596</v>
       </c>
       <c r="D63" t="n">
+        <v>37839993</v>
+      </c>
+      <c r="E63" t="n">
         <v>24866598</v>
       </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
       <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
         <v>503161</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>667993</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>493606</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>11308635</v>
       </c>
     </row>
@@ -2541,21 +2732,24 @@
         <v>708727970</v>
       </c>
       <c r="D64" t="n">
+        <v>38986513</v>
+      </c>
+      <c r="E64" t="n">
         <v>25755723</v>
       </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
       <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
         <v>524664</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>673287</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>501865</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>11530974</v>
       </c>
     </row>
@@ -2574,21 +2768,24 @@
         <v>724076070</v>
       </c>
       <c r="D65" t="n">
+        <v>40095036</v>
+      </c>
+      <c r="E65" t="n">
         <v>26595155</v>
       </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
       <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
         <v>554915</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>676047</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>511505</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>11757414</v>
       </c>
     </row>
@@ -2607,21 +2804,24 @@
         <v>76531010001</v>
       </c>
       <c r="D66" t="n">
+        <v>4756666049</v>
+      </c>
+      <c r="E66" t="n">
         <v>3460930401</v>
       </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
       <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
         <v>40524059</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>63372942</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>41013331</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>1150825316</v>
       </c>
     </row>
@@ -2640,21 +2840,24 @@
         <v>738199294</v>
       </c>
       <c r="D67" t="n">
+        <v>40913765</v>
+      </c>
+      <c r="E67" t="n">
         <v>27156764</v>
       </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
       <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
         <v>592371</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>677915</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>512030</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>11974685</v>
       </c>
     </row>
@@ -2673,21 +2876,24 @@
         <v>753583263</v>
       </c>
       <c r="D68" t="n">
+        <v>41837471</v>
+      </c>
+      <c r="E68" t="n">
         <v>27850737</v>
       </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
       <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
         <v>616263</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>685475</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>512030</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>12172966</v>
       </c>
     </row>
@@ -2706,21 +2912,24 @@
         <v>768473699</v>
       </c>
       <c r="D69" t="n">
+        <v>42842901</v>
+      </c>
+      <c r="E69" t="n">
         <v>28603941</v>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
       <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
         <v>643199</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>695811</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>512034</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>12387916</v>
       </c>
     </row>
@@ -2739,21 +2948,24 @@
         <v>779070190</v>
       </c>
       <c r="D70" t="n">
+        <v>43089623</v>
+      </c>
+      <c r="E70" t="n">
         <v>28611937</v>
       </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
       <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
         <v>660267</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>712767</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>514064</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>12590588</v>
       </c>
     </row>
@@ -2772,21 +2984,24 @@
         <v>789088169</v>
       </c>
       <c r="D71" t="n">
+        <v>43353586</v>
+      </c>
+      <c r="E71" t="n">
         <v>28617579</v>
       </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
       <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
         <v>675993</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>736553</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>526132</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>12797329</v>
       </c>
     </row>
@@ -2805,21 +3020,24 @@
         <v>798620567</v>
       </c>
       <c r="D72" t="n">
+        <v>43611574</v>
+      </c>
+      <c r="E72" t="n">
         <v>28625313</v>
       </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
       <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
         <v>687396</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>758343</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>537922</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>13002600</v>
       </c>
     </row>
@@ -2838,21 +3056,24 @@
         <v>808424189</v>
       </c>
       <c r="D73" t="n">
+        <v>43910574</v>
+      </c>
+      <c r="E73" t="n">
         <v>28639992</v>
       </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
       <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
         <v>696800</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>783148</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>548114</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>13242520</v>
       </c>
     </row>
@@ -2871,21 +3092,24 @@
         <v>817199093</v>
       </c>
       <c r="D74" t="n">
+        <v>44195429</v>
+      </c>
+      <c r="E74" t="n">
         <v>28669202</v>
       </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
       <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
         <v>709939</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>804446</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>556822</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>13455020</v>
       </c>
     </row>
@@ -2904,21 +3128,24 @@
         <v>826587217</v>
       </c>
       <c r="D75" t="n">
+        <v>44438443</v>
+      </c>
+      <c r="E75" t="n">
         <v>28673589</v>
       </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
       <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
         <v>725016</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>822894</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>563588</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>13653356</v>
       </c>
     </row>
@@ -2937,21 +3164,24 @@
         <v>837655334</v>
       </c>
       <c r="D76" t="n">
+        <v>44713748</v>
+      </c>
+      <c r="E76" t="n">
         <v>28698485</v>
       </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
       <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
         <v>745547</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>839436</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>571522</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>13858758</v>
       </c>
     </row>
@@ -2970,21 +3200,24 @@
         <v>851172052</v>
       </c>
       <c r="D77" t="n">
+        <v>45673122</v>
+      </c>
+      <c r="E77" t="n">
         <v>29404315</v>
       </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
       <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
         <v>767058</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>849158</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>579307</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>14073284</v>
       </c>
     </row>
@@ -3003,21 +3236,24 @@
         <v>865670030</v>
       </c>
       <c r="D78" t="n">
+        <v>46647321</v>
+      </c>
+      <c r="E78" t="n">
         <v>30102568</v>
       </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
       <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
         <v>797533</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>850924</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>592649</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>14303647</v>
       </c>
     </row>
@@ -3036,21 +3272,24 @@
         <v>162695763099</v>
       </c>
       <c r="D79" t="n">
+        <v>10038559655</v>
+      </c>
+      <c r="E79" t="n">
         <v>7265515224</v>
       </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
       <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
         <v>89365500</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>135962754</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>88552876</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>2459163301</v>
       </c>
     </row>
@@ -3069,21 +3308,24 @@
         <v>881847225</v>
       </c>
       <c r="D80" t="n">
+        <v>47689008</v>
+      </c>
+      <c r="E80" t="n">
         <v>30879697</v>
       </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
       <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
         <v>819321</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>856415</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>605149</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>14528426</v>
       </c>
     </row>
@@ -3102,21 +3344,24 @@
         <v>895117497</v>
       </c>
       <c r="D81" t="n">
+        <v>48527131</v>
+      </c>
+      <c r="E81" t="n">
         <v>31476750</v>
       </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
       <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
         <v>837793</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>868304</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>617227</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>14727057</v>
       </c>
     </row>
@@ -3135,21 +3380,24 @@
         <v>907983105</v>
       </c>
       <c r="D82" t="n">
+        <v>49338177</v>
+      </c>
+      <c r="E82" t="n">
         <v>32008124</v>
       </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
       <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
         <v>876226</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>884842</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>631930</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>14937055</v>
       </c>
     </row>
@@ -3168,21 +3416,24 @@
         <v>918958650</v>
       </c>
       <c r="D83" t="n">
+        <v>49562723</v>
+      </c>
+      <c r="E83" t="n">
         <v>32013642</v>
       </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
       <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
         <v>895676</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>903722</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>646257</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>15103426</v>
       </c>
     </row>
@@ -3201,21 +3452,24 @@
         <v>929495307</v>
       </c>
       <c r="D84" t="n">
+        <v>49814689</v>
+      </c>
+      <c r="E84" t="n">
         <v>32015862</v>
       </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
       <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
         <v>916439</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>927231</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>660490</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>15294667</v>
       </c>
     </row>
@@ -3234,21 +3488,24 @@
         <v>938986252</v>
       </c>
       <c r="D85" t="n">
+        <v>50050956</v>
+      </c>
+      <c r="E85" t="n">
         <v>32017997</v>
       </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
       <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
         <v>934368</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>952690</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>670021</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>15475880</v>
       </c>
     </row>
@@ -3267,21 +3524,24 @@
         <v>948496085</v>
       </c>
       <c r="D86" t="n">
+        <v>50361300</v>
+      </c>
+      <c r="E86" t="n">
         <v>32051681</v>
       </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
       <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
         <v>952929</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>980266</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>676707</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>15699717</v>
       </c>
     </row>
@@ -3300,21 +3560,24 @@
         <v>956884168</v>
       </c>
       <c r="D87" t="n">
+        <v>50643089</v>
+      </c>
+      <c r="E87" t="n">
         <v>32079018</v>
       </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
       <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
         <v>977349</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>1004610</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>681045</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>15901067</v>
       </c>
     </row>
@@ -3333,21 +3596,24 @@
         <v>965951245</v>
       </c>
       <c r="D88" t="n">
+        <v>50934606</v>
+      </c>
+      <c r="E88" t="n">
         <v>32113384</v>
       </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
       <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
         <v>1016653</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>1027602</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>687946</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>16089021</v>
       </c>
     </row>
@@ -3366,21 +3632,24 @@
         <v>977040871</v>
       </c>
       <c r="D89" t="n">
+        <v>51313120</v>
+      </c>
+      <c r="E89" t="n">
         <v>32217479</v>
       </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
       <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
         <v>1062718</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>1042405</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>697779</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>16292739</v>
       </c>
     </row>
@@ -3399,21 +3668,24 @@
         <v>990492622</v>
       </c>
       <c r="D90" t="n">
+        <v>52277566</v>
+      </c>
+      <c r="E90" t="n">
         <v>32912104</v>
       </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
       <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
         <v>1108465</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>1051666</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>710276</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>16495055</v>
       </c>
     </row>
@@ -3432,21 +3704,24 @@
         <v>1004885326</v>
       </c>
       <c r="D91" t="n">
+        <v>53126748</v>
+      </c>
+      <c r="E91" t="n">
         <v>33489726</v>
       </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
       <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
         <v>1167646</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>1060456</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>716420</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>16692500</v>
       </c>
     </row>
@@ -3465,21 +3740,24 @@
         <v>336707664551</v>
       </c>
       <c r="D92" t="n">
+        <v>20680758423</v>
+      </c>
+      <c r="E92" t="n">
         <v>14916305912</v>
       </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
       <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
         <v>190296583</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>283485717</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>185106999</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>5105563212</v>
       </c>
     </row>
@@ -3498,21 +3776,24 @@
         <v>1019967091</v>
       </c>
       <c r="D93" t="n">
+        <v>53914873</v>
+      </c>
+      <c r="E93" t="n">
         <v>34010187</v>
       </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
       <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
         <v>1220848</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>1068030</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>724792</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>16891016</v>
       </c>
     </row>
@@ -3531,21 +3812,24 @@
         <v>1032826011</v>
       </c>
       <c r="D94" t="n">
+        <v>54598027</v>
+      </c>
+      <c r="E94" t="n">
         <v>34444315</v>
       </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
       <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
         <v>1295973</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>1079326</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>728198</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>17050215</v>
       </c>
     </row>
@@ -3564,21 +3848,24 @@
         <v>1045216554</v>
       </c>
       <c r="D95" t="n">
+        <v>55453202</v>
+      </c>
+      <c r="E95" t="n">
         <v>35012572</v>
       </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
       <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
         <v>1355326</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>1097396</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>730143</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>17257765</v>
       </c>
     </row>
@@ -3597,21 +3884,24 @@
         <v>1053750392</v>
       </c>
       <c r="D96" t="n">
+        <v>55723642</v>
+      </c>
+      <c r="E96" t="n">
         <v>35015289</v>
       </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
       <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
         <v>1386249</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>1124117</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>741237</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>17456750</v>
       </c>
     </row>
@@ -3630,21 +3920,24 @@
         <v>1062529921</v>
       </c>
       <c r="D97" t="n">
+        <v>55996443</v>
+      </c>
+      <c r="E97" t="n">
         <v>35018333</v>
       </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
       <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
         <v>1421055</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>1156878</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>751522</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>17648655</v>
       </c>
     </row>
@@ -3663,21 +3956,24 @@
         <v>1071321879</v>
       </c>
       <c r="D98" t="n">
+        <v>56418916</v>
+      </c>
+      <c r="E98" t="n">
         <v>35168435</v>
       </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
       <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
         <v>1446761</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>1186057</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>758105</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>17859558</v>
       </c>
     </row>
@@ -3696,21 +3992,24 @@
         <v>1080138673</v>
       </c>
       <c r="D99" t="n">
+        <v>56935119</v>
+      </c>
+      <c r="E99" t="n">
         <v>35385353</v>
       </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
       <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
         <v>1474474</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>1222410</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>763749</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>18089133</v>
       </c>
     </row>
@@ -3729,21 +4028,24 @@
         <v>1088737313</v>
       </c>
       <c r="D100" t="n">
+        <v>57279439</v>
+      </c>
+      <c r="E100" t="n">
         <v>35461260</v>
       </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
       <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
         <v>1502634</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>1257154</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>768805</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>18289586</v>
       </c>
     </row>
@@ -3762,21 +4064,24 @@
         <v>1097928263</v>
       </c>
       <c r="D101" t="n">
+        <v>57758909</v>
+      </c>
+      <c r="E101" t="n">
         <v>35640128</v>
       </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
       <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
         <v>1533665</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>1286706</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>774037</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>18524373</v>
       </c>
     </row>
@@ -3795,21 +4100,24 @@
         <v>1109137633</v>
       </c>
       <c r="D102" t="n">
+        <v>57999392</v>
+      </c>
+      <c r="E102" t="n">
         <v>35649078</v>
       </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
       <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
         <v>1594666</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>1302771</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>783875</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>18669002</v>
       </c>
     </row>
@@ -3828,21 +4136,24 @@
         <v>1120871713</v>
       </c>
       <c r="D103" t="n">
+        <v>58749125</v>
+      </c>
+      <c r="E103" t="n">
         <v>36176338</v>
       </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
       <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
         <v>1633976</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>1315949</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>794115</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>18828747</v>
       </c>
     </row>
@@ -3861,21 +4172,24 @@
         <v>1134895064</v>
       </c>
       <c r="D104" t="n">
+        <v>59831277</v>
+      </c>
+      <c r="E104" t="n">
         <v>37000818</v>
       </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
       <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
         <v>1698537</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>1323484</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>802321</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>19006117</v>
       </c>
     </row>
@@ -3894,21 +4208,24 @@
         <v>686332649609</v>
       </c>
       <c r="D105" t="n">
+        <v>42042175210</v>
+      </c>
+      <c r="E105" t="n">
         <v>30256593930</v>
       </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
       <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
         <v>398157330</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>581391712</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>379334897</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>10426697341</v>
       </c>
     </row>
@@ -3927,21 +4244,24 @@
         <v>1150503911</v>
       </c>
       <c r="D106" t="n">
+        <v>60917826</v>
+      </c>
+      <c r="E106" t="n">
         <v>37819152</v>
       </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
       <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
         <v>1751542</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>1329512</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>807798</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>19209822</v>
       </c>
     </row>
@@ -3960,21 +4280,24 @@
         <v>1163294343</v>
       </c>
       <c r="D107" t="n">
+        <v>61784446</v>
+      </c>
+      <c r="E107" t="n">
         <v>38432064</v>
       </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
       <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
         <v>1808371</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>1343809</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>808921</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>19391281</v>
       </c>
     </row>
@@ -3993,21 +4316,24 @@
         <v>1176210124</v>
       </c>
       <c r="D108" t="n">
+        <v>62624327</v>
+      </c>
+      <c r="E108" t="n">
         <v>38993014</v>
       </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
       <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
         <v>1858056</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>1357512</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>822019</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>19593726</v>
       </c>
     </row>
@@ -4026,21 +4352,24 @@
         <v>1187347045</v>
       </c>
       <c r="D109" t="n">
+        <v>62982697</v>
+      </c>
+      <c r="E109" t="n">
         <v>39056784</v>
       </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
       <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
         <v>1900394</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>1396179</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>834897</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>19794443</v>
       </c>
     </row>
@@ -4059,21 +4388,24 @@
         <v>1197553227</v>
       </c>
       <c r="D110" t="n">
+        <v>63316713</v>
+      </c>
+      <c r="E110" t="n">
         <v>39098166</v>
       </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
       <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
         <v>1958618</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>1433895</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>850446</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>19975588</v>
       </c>
     </row>
@@ -4092,21 +4424,24 @@
         <v>1206622881</v>
       </c>
       <c r="D111" t="n">
+        <v>63593360</v>
+      </c>
+      <c r="E111" t="n">
         <v>39125532</v>
       </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
       <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
         <v>1973462</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>1471772</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>864351</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>20158243</v>
       </c>
     </row>
@@ -4125,21 +4460,24 @@
         <v>1215408058</v>
       </c>
       <c r="D112" t="n">
+        <v>63904962</v>
+      </c>
+      <c r="E112" t="n">
         <v>39127669</v>
       </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
       <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
         <v>2004877</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>1510181</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>873704</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>20388531</v>
       </c>
     </row>
@@ -4158,21 +4496,24 @@
         <v>1223393292</v>
       </c>
       <c r="D113" t="n">
+        <v>64145509</v>
+      </c>
+      <c r="E113" t="n">
         <v>39137891</v>
       </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
       <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
         <v>2030602</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>1541170</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>875198</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>20560648</v>
       </c>
     </row>
@@ -4191,21 +4532,24 @@
         <v>1232467420</v>
       </c>
       <c r="D114" t="n">
+        <v>64457926</v>
+      </c>
+      <c r="E114" t="n">
         <v>39142504</v>
       </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
       <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
         <v>2056424</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>1580351</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>881207</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>20797440</v>
       </c>
     </row>
@@ -4224,21 +4568,24 @@
         <v>1243415617</v>
       </c>
       <c r="D115" t="n">
+        <v>64863352</v>
+      </c>
+      <c r="E115" t="n">
         <v>39210012</v>
       </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
       <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
         <v>2113026</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>1609731</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>891834</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>21038749</v>
       </c>
     </row>
@@ -4257,21 +4604,24 @@
         <v>1256885345</v>
       </c>
       <c r="D116" t="n">
+        <v>65974666</v>
+      </c>
+      <c r="E116" t="n">
         <v>40040475</v>
       </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
       <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
         <v>2159146</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>1623265</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>902806</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>21248974</v>
       </c>
     </row>
@@ -4290,21 +4640,24 @@
         <v>1271405406</v>
       </c>
       <c r="D117" t="n">
+        <v>67112293</v>
+      </c>
+      <c r="E117" t="n">
         <v>40890289</v>
       </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
       <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
         <v>2227441</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>1632363</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>912314</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>21449886</v>
       </c>
     </row>
@@ -4323,21 +4676,24 @@
         <v>1387189805887</v>
       </c>
       <c r="D118" t="n">
+        <v>84850028497</v>
+      </c>
+      <c r="E118" t="n">
         <v>60983261412</v>
       </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
       <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
         <v>820156619</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>1180613164</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>768995289</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>21097002013</v>
       </c>
     </row>
